--- a/docs/Permessi.xlsx
+++ b/docs/Permessi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vblaha\Documents\Progetti\progetto-tecweb\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4923B2B2-FCE3-4E33-A01C-2DE0FF685D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9D2343-7893-4208-8219-AC44A07889BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E5661326-1855-4D9C-BC0B-85B0E2B2E816}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>CourseSchedule</t>
   </si>
   <si>
-    <t>Subscribtion</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>CR, UD (Only own)</t>
   </si>
   <si>
-    <t>C, R, U (Not ordered yet), D (Only own, Not ordered yet)</t>
-  </si>
-  <si>
     <t>CR (Only own)</t>
   </si>
   <si>
@@ -103,6 +97,12 @@
   </si>
   <si>
     <t>C, R (Select few fields)</t>
+  </si>
+  <si>
+    <t>C, R (Only own), UD (Only own, Not ordered yet)</t>
+  </si>
+  <si>
+    <t>Subscription</t>
   </si>
 </sst>
 </file>
@@ -138,8 +138,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -456,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0048C7C4-080A-44E2-8401-56D51014FE42}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,13 +485,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -498,13 +499,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -512,13 +513,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -526,114 +527,115 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>